--- a/Greyform/Python_Application/exporteddatass4sides.xlsx
+++ b/Greyform/Python_Application/exporteddatass4sides.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C539D3-B2C5-4DA3-AA22-94DB8193C8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A9822-A24D-44BB-925B-2509CD005EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
   <si>
     <t>Marking type</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Pipe Types:BSS.Domestic Cold Water Pipe (Pex)(Main):1252334</t>
   </si>
   <si>
-    <t>BSS.Rehau Elbow 90, PX:Standard:1252344</t>
-  </si>
-  <si>
     <t>BSS.Rehau T- Piece, Uniform PX:16:1252349</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Pipe Types:BSS.Domestic Cold Water Pipe (Pex)(WC Cistern):1254258</t>
   </si>
   <si>
-    <t>BSS.Rehau Elbow 90, PX:Standard:1254266</t>
-  </si>
-  <si>
     <t>BSS.Rehau Elbow 90, PX:Standard:1254274</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>Pipe Types:BSS.Domestic Cold Water Pipe (Pex)(Basin):1262741</t>
   </si>
   <si>
-    <t>BSS.Rehau Elbow 90, PX:Standard:1262751</t>
-  </si>
-  <si>
     <t>Pipe Types:BSS.Domestic Cold Water Pipe (Pex)(Basin):1263128</t>
   </si>
   <si>
@@ -313,91 +304,76 @@
     <t>blank</t>
   </si>
   <si>
+    <t>Basic Wall:BSS.50:1279343</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.50</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20</t>
+  </si>
+  <si>
+    <t>Floor:BSS.70</t>
+  </si>
+  <si>
+    <t>Floor:BSS.20mm Floor Finishes</t>
+  </si>
+  <si>
+    <t>Floor:BSS.90</t>
+  </si>
+  <si>
     <t>BSS.Shallow_FT:BSS.Shallow_FT</t>
   </si>
   <si>
+    <t>Inspirone Wall Mounted Paper Holder:Stainless Steel</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.50:1279340</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.50:1279341</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.50:1279342</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20:1279344</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20:1279345</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20:1279346</t>
+  </si>
+  <si>
+    <t>Floor:BSS.70:1279349</t>
+  </si>
+  <si>
+    <t>Floor:BSS.20mm Floor Finishes:1279356</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20:1279393</t>
+  </si>
+  <si>
+    <t>Floor:BSS.90:1279436</t>
+  </si>
+  <si>
     <t>BSS.Shallow_FT:BSS.Shallow_FT:1279451</t>
   </si>
   <si>
-    <t>Basic Wall:BSS.50:1279343</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20</t>
-  </si>
-  <si>
-    <t>Floor:BSS.70</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes</t>
-  </si>
-  <si>
-    <t>Floor:BSS.60</t>
+    <t>Inspirone Wall Mounted Paper Holder:Stainless Steel:1279452</t>
+  </si>
+  <si>
+    <t>Basic Wall:BSS.20:1279460</t>
   </si>
   <si>
     <t>BSS.Ceiling Access Panel:450 x 450</t>
   </si>
   <si>
-    <t>Floor:BSS.90</t>
-  </si>
-  <si>
-    <t>Inspirone Wall Mounted Paper Holder:Stainless Steel</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1279340</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1279341</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1279342</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20:1279344</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20:1279345</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20:1279346</t>
-  </si>
-  <si>
-    <t>Floor:BSS.70:1279349</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes:1279356</t>
-  </si>
-  <si>
-    <t>Floor:BSS.60:1279365</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20:1279393</t>
-  </si>
-  <si>
     <t>BSS.Ceiling Access Panel:450 x 450:1279420</t>
   </si>
   <si>
-    <t>Floor:BSS.90:1279436</t>
-  </si>
-  <si>
-    <t>Inspirone Wall Mounted Paper Holder:Stainless Steel:1279452</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20:1279460</t>
-  </si>
-  <si>
     <t>BSS.Junction Box - No Load:100 Square</t>
-  </si>
-  <si>
-    <t>Floor:BSS.60:1279365:2</t>
-  </si>
-  <si>
-    <t>Floor:BSS.60:1279365:3</t>
-  </si>
-  <si>
-    <t>Floor:BSS.60:1279365:4</t>
   </si>
   <si>
     <t>Mirror:Mirror</t>
@@ -774,9 +750,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -850,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -888,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -929,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -970,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1008,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1046,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1087,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1125,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1163,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1201,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1242,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1280,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1321,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1362,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1400,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1441,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1479,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1517,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1555,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1593,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1634,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1675,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1716,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1757,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1795,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1812,31 +1788,31 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
       </c>
       <c r="D27">
-        <v>1727</v>
+        <v>1629</v>
       </c>
       <c r="E27">
         <v>895</v>
       </c>
       <c r="F27">
-        <v>2484</v>
+        <v>109</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1850,16 +1826,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28">
-        <v>1629</v>
+        <v>1651</v>
       </c>
       <c r="E28">
         <v>895</v>
@@ -1874,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1888,22 +1864,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29">
-        <v>1651</v>
+        <v>1249</v>
       </c>
       <c r="E29">
-        <v>895</v>
+        <v>825</v>
       </c>
       <c r="F29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1912,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1922,26 +1898,29 @@
       </c>
       <c r="M29">
         <v>940</v>
+      </c>
+      <c r="O29">
+        <v>25.6</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
       </c>
       <c r="D30">
-        <v>1249</v>
+        <v>1207</v>
       </c>
       <c r="E30">
         <v>825</v>
       </c>
       <c r="F30">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1950,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1960,29 +1939,26 @@
       </c>
       <c r="M30">
         <v>940</v>
-      </c>
-      <c r="O30">
-        <v>25.6</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31">
-        <v>1207</v>
+        <v>1270</v>
       </c>
       <c r="E31">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F31">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1991,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2001,14 +1977,17 @@
       </c>
       <c r="M31">
         <v>940</v>
+      </c>
+      <c r="O31">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -2017,10 +1996,10 @@
         <v>1270</v>
       </c>
       <c r="E32">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="F32">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2029,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2039,29 +2018,26 @@
       </c>
       <c r="M32">
         <v>940</v>
-      </c>
-      <c r="O32">
-        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33">
-        <v>1270</v>
+        <v>1606</v>
       </c>
       <c r="E33">
         <v>825</v>
       </c>
       <c r="F33">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2070,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2080,26 +2056,29 @@
       </c>
       <c r="M33">
         <v>940</v>
+      </c>
+      <c r="O33">
+        <v>25.6</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
       </c>
       <c r="D34">
-        <v>1606</v>
+        <v>1270</v>
       </c>
       <c r="E34">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F34">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2108,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2118,14 +2097,11 @@
       </c>
       <c r="M34">
         <v>940</v>
-      </c>
-      <c r="O34">
-        <v>25.6</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2137,7 +2113,7 @@
         <v>1270</v>
       </c>
       <c r="E35">
-        <v>803</v>
+        <v>735</v>
       </c>
       <c r="F35">
         <v>109</v>
@@ -2149,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2163,22 +2139,22 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
       </c>
       <c r="D36">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="E36">
-        <v>735</v>
+        <v>566</v>
       </c>
       <c r="F36">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2187,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2197,11 +2173,14 @@
       </c>
       <c r="M36">
         <v>940</v>
+      </c>
+      <c r="O36">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2210,10 +2189,10 @@
         <v>72</v>
       </c>
       <c r="D37">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="E37">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="F37">
         <v>110</v>
@@ -2225,7 +2204,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2242,10 +2221,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
@@ -2254,10 +2233,10 @@
         <v>1270</v>
       </c>
       <c r="E38">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="F38">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2266,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2276,38 +2255,35 @@
       </c>
       <c r="M38">
         <v>940</v>
-      </c>
-      <c r="O38">
-        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39">
-        <v>1100</v>
+        <v>1266</v>
       </c>
       <c r="E39">
-        <v>313</v>
+        <v>570</v>
       </c>
       <c r="F39">
-        <v>2484</v>
+        <v>109</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2321,10 +2297,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -2333,7 +2309,7 @@
         <v>1270</v>
       </c>
       <c r="E40">
-        <v>576</v>
+        <v>630</v>
       </c>
       <c r="F40">
         <v>109</v>
@@ -2345,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2359,7 +2335,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -2368,10 +2344,10 @@
         <v>76</v>
       </c>
       <c r="D41">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="E41">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F41">
         <v>109</v>
@@ -2383,7 +2359,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2397,7 +2373,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -2406,13 +2382,13 @@
         <v>77</v>
       </c>
       <c r="D42">
-        <v>1270</v>
+        <v>1100</v>
       </c>
       <c r="E42">
-        <v>630</v>
+        <v>338</v>
       </c>
       <c r="F42">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2421,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2435,7 +2411,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -2444,10 +2420,10 @@
         <v>78</v>
       </c>
       <c r="D43">
-        <v>1270</v>
+        <v>1629</v>
       </c>
       <c r="E43">
-        <v>583</v>
+        <v>916</v>
       </c>
       <c r="F43">
         <v>109</v>
@@ -2459,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2473,22 +2449,22 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>79</v>
       </c>
       <c r="D44">
-        <v>1100</v>
+        <v>1630</v>
       </c>
       <c r="E44">
-        <v>338</v>
+        <v>1477</v>
       </c>
       <c r="F44">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2497,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2507,14 +2483,17 @@
       </c>
       <c r="M44">
         <v>940</v>
+      </c>
+      <c r="O44">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
@@ -2523,7 +2502,7 @@
         <v>1629</v>
       </c>
       <c r="E45">
-        <v>916</v>
+        <v>1500</v>
       </c>
       <c r="F45">
         <v>109</v>
@@ -2535,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2549,7 +2528,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -2558,10 +2537,10 @@
         <v>81</v>
       </c>
       <c r="D46">
-        <v>1630</v>
+        <v>1709</v>
       </c>
       <c r="E46">
-        <v>1477</v>
+        <v>1500</v>
       </c>
       <c r="F46">
         <v>110</v>
@@ -2573,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2590,22 +2569,22 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
       </c>
       <c r="D47">
-        <v>1629</v>
+        <v>1732</v>
       </c>
       <c r="E47">
         <v>1500</v>
       </c>
       <c r="F47">
-        <v>109</v>
+        <v>1007</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -2614,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2624,11 +2603,14 @@
       </c>
       <c r="M47">
         <v>940</v>
+      </c>
+      <c r="O47">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -2637,13 +2619,13 @@
         <v>83</v>
       </c>
       <c r="D48">
-        <v>1709</v>
+        <v>1732</v>
       </c>
       <c r="E48">
         <v>1500</v>
       </c>
       <c r="F48">
-        <v>110</v>
+        <v>1003</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2652,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2667,9 +2649,9 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -2681,19 +2663,19 @@
         <v>1731</v>
       </c>
       <c r="E49">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="F49">
-        <v>2485</v>
+        <v>675</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2705,24 +2687,24 @@
         <v>940</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>85</v>
       </c>
       <c r="D50">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E50">
         <v>1500</v>
       </c>
       <c r="F50">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2731,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2742,28 +2724,25 @@
       <c r="M50">
         <v>940</v>
       </c>
-      <c r="O50">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
       </c>
       <c r="D51">
-        <v>1732</v>
+        <v>1589</v>
       </c>
       <c r="E51">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="F51">
-        <v>1003</v>
+        <v>670</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2772,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2783,28 +2762,25 @@
       <c r="M51">
         <v>940</v>
       </c>
-      <c r="O51">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>1731</v>
+        <v>1508</v>
       </c>
       <c r="E52">
-        <v>1440</v>
+        <v>1070</v>
       </c>
       <c r="F52">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2813,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2825,24 +2801,24 @@
         <v>940</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
       </c>
       <c r="D53">
-        <v>1731</v>
+        <v>1658</v>
       </c>
       <c r="E53">
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="F53">
-        <v>1005</v>
+        <v>865</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2851,7 +2827,7 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2863,24 +2839,24 @@
         <v>940</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
       </c>
       <c r="D54">
-        <v>1589</v>
+        <v>1670</v>
       </c>
       <c r="E54">
         <v>1370</v>
       </c>
       <c r="F54">
-        <v>670</v>
+        <v>735</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2889,7 +2865,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2901,33 +2877,33 @@
         <v>940</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>90</v>
       </c>
       <c r="D55">
-        <v>1508</v>
+        <v>1270</v>
       </c>
       <c r="E55">
-        <v>1070</v>
+        <v>370</v>
       </c>
       <c r="F55">
-        <v>750</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55">
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2939,24 +2915,24 @@
         <v>940</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>91</v>
       </c>
       <c r="D56">
-        <v>1658</v>
+        <v>1531</v>
       </c>
       <c r="E56">
-        <v>1070</v>
+        <v>1464</v>
       </c>
       <c r="F56">
-        <v>865</v>
+        <v>809</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2965,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2974,120 +2950,6 @@
         <v>1340</v>
       </c>
       <c r="M56">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>76</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57">
-        <v>1670</v>
-      </c>
-      <c r="E57">
-        <v>1370</v>
-      </c>
-      <c r="F57">
-        <v>735</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>6</v>
-      </c>
-      <c r="I57" t="s">
-        <v>95</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>1340</v>
-      </c>
-      <c r="M57">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58">
-        <v>1270</v>
-      </c>
-      <c r="E58">
-        <v>370</v>
-      </c>
-      <c r="F58">
-        <v>25</v>
-      </c>
-      <c r="G58">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-      <c r="I58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1340</v>
-      </c>
-      <c r="M58">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59">
-        <v>1531</v>
-      </c>
-      <c r="E59">
-        <v>1464</v>
-      </c>
-      <c r="F59">
-        <v>809</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="I59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1340</v>
-      </c>
-      <c r="M59">
         <v>940</v>
       </c>
     </row>
@@ -3098,9 +2960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K2:K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3150,39 +3014,571 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>674</v>
+      </c>
+      <c r="E2">
+        <v>1245</v>
+      </c>
+      <c r="F2">
+        <v>1078</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1340</v>
+      </c>
+      <c r="M2">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>325</v>
+      </c>
+      <c r="F3">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>940</v>
+      </c>
+      <c r="M3">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>1715</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1340</v>
+      </c>
+      <c r="M4">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>1690</v>
+      </c>
+      <c r="E5">
+        <v>1615</v>
+      </c>
+      <c r="F5">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>940</v>
+      </c>
+      <c r="M5">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>674</v>
+      </c>
+      <c r="E6">
+        <v>1245</v>
+      </c>
+      <c r="F6">
+        <v>1078</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1340</v>
+      </c>
+      <c r="M6">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>850</v>
+      </c>
+      <c r="E7">
+        <v>360</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1340</v>
+      </c>
+      <c r="M7">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>1680</v>
+      </c>
+      <c r="E8">
+        <v>1570</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1340</v>
+      </c>
+      <c r="M8">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>1690</v>
+      </c>
+      <c r="E9">
+        <v>1580</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1340</v>
+      </c>
+      <c r="M9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1340</v>
+      </c>
+      <c r="M10">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1340</v>
+      </c>
+      <c r="M11">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>860</v>
+      </c>
+      <c r="E12">
+        <v>920</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1340</v>
+      </c>
+      <c r="M12">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1340</v>
+      </c>
+      <c r="M13">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
         <v>1535</v>
       </c>
-      <c r="E2">
+      <c r="E14">
         <v>1332</v>
       </c>
-      <c r="F2">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="G2">
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1340</v>
+      </c>
+      <c r="M14">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>870</v>
+      </c>
+      <c r="E15">
+        <v>620</v>
+      </c>
+      <c r="F15">
+        <v>703</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1340</v>
+      </c>
+      <c r="M15">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1340</v>
-      </c>
-      <c r="M2">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>860</v>
+      </c>
+      <c r="E16">
+        <v>1570</v>
+      </c>
+      <c r="F16">
+        <v>2200</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1340</v>
+      </c>
+      <c r="M16">
         <v>940</v>
       </c>
     </row>
@@ -3193,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K2:K17"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,31 +3643,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>674</v>
+        <v>1270</v>
       </c>
       <c r="E2">
-        <v>1245</v>
+        <v>900</v>
       </c>
       <c r="F2">
-        <v>1078</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3280,74 +3676,74 @@
         <v>1340</v>
       </c>
       <c r="M2">
-        <v>2540</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>800</v>
+        <v>1270</v>
       </c>
       <c r="E3">
-        <v>325</v>
+        <v>1239</v>
       </c>
       <c r="F3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>940</v>
+        <v>1340</v>
       </c>
       <c r="M3">
-        <v>2540</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D4">
-        <v>1715</v>
+        <v>1670</v>
       </c>
       <c r="E4">
-        <v>350</v>
+        <v>1370</v>
       </c>
       <c r="F4">
-        <v>115</v>
+        <v>1015</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3356,500 +3752,6 @@
         <v>1340</v>
       </c>
       <c r="M4">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5">
-        <v>1690</v>
-      </c>
-      <c r="E5">
-        <v>1615</v>
-      </c>
-      <c r="F5">
-        <v>115</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>940</v>
-      </c>
-      <c r="M5">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6">
-        <v>674</v>
-      </c>
-      <c r="E6">
-        <v>1245</v>
-      </c>
-      <c r="F6">
-        <v>1078</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1340</v>
-      </c>
-      <c r="M6">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>850</v>
-      </c>
-      <c r="E7">
-        <v>360</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1340</v>
-      </c>
-      <c r="M7">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8">
-        <v>1680</v>
-      </c>
-      <c r="E8">
-        <v>1570</v>
-      </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1340</v>
-      </c>
-      <c r="M8">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9">
-        <v>1690</v>
-      </c>
-      <c r="E9">
-        <v>1580</v>
-      </c>
-      <c r="F9">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1340</v>
-      </c>
-      <c r="M9">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1340</v>
-      </c>
-      <c r="M10">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1340</v>
-      </c>
-      <c r="M11">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12">
-        <v>1740</v>
-      </c>
-      <c r="E12">
-        <v>1640</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1340</v>
-      </c>
-      <c r="M12">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13">
-        <v>860</v>
-      </c>
-      <c r="E13">
-        <v>920</v>
-      </c>
-      <c r="F13">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1340</v>
-      </c>
-      <c r="M13">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14">
-        <v>1270</v>
-      </c>
-      <c r="E14">
-        <v>1239</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1340</v>
-      </c>
-      <c r="M14">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1340</v>
-      </c>
-      <c r="M15">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16">
-        <v>870</v>
-      </c>
-      <c r="E16">
-        <v>620</v>
-      </c>
-      <c r="F16">
-        <v>703</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1340</v>
-      </c>
-      <c r="M16">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <v>860</v>
-      </c>
-      <c r="E17">
-        <v>1570</v>
-      </c>
-      <c r="F17">
-        <v>2200</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1340</v>
-      </c>
-      <c r="M17">
         <v>940</v>
       </c>
     </row>
@@ -3860,10 +3762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,194 +3819,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2">
-        <v>1270</v>
-      </c>
-      <c r="E2">
-        <v>900</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1340</v>
-      </c>
-      <c r="M2">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3">
-        <v>469</v>
-      </c>
-      <c r="E3">
-        <v>740</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1340</v>
-      </c>
-      <c r="M3">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4">
-        <v>199</v>
-      </c>
-      <c r="E4">
-        <v>950</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1340</v>
-      </c>
-      <c r="M4">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <v>469</v>
-      </c>
-      <c r="E5">
-        <v>400</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1340</v>
-      </c>
-      <c r="M5">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>1670</v>
-      </c>
-      <c r="E6">
-        <v>1370</v>
-      </c>
-      <c r="F6">
-        <v>1015</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1340</v>
-      </c>
-      <c r="M6">
-        <v>940</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
